--- a/velocity_data.xlsx
+++ b/velocity_data.xlsx
@@ -21,10 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,7 +339,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
